--- a/SDP_TAHAP2/kemanan/DaftarLaluLintas/1Lalu_Lintas_Portir/fungsional_test/report/ALL REPORT/daftar lalu lintas portir.xlsx
+++ b/SDP_TAHAP2/kemanan/DaftarLaluLintas/1Lalu_Lintas_Portir/fungsional_test/report/ALL REPORT/daftar lalu lintas portir.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13760" tabRatio="500"/>
+    <workbookView windowHeight="16940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="124">
   <si>
     <t>Pytest HTML Reporter</t>
   </si>
@@ -133,40 +133,76 @@
     <t>test_2Fungsi_Daftar_Lalu_Lintas_Cari_Identitas.py</t>
   </si>
   <si>
+    <t>test_4_membuka_halaman_tambah_index</t>
+  </si>
+  <si>
+    <t>Menekan button Tambah, dan masuk ke halaman tambah</t>
+  </si>
+  <si>
+    <t>test_5_Button_Next_Prev</t>
+  </si>
+  <si>
+    <t>next data table</t>
+  </si>
+  <si>
+    <t>test_6_sortir_table_cari_noreg_cari_identitas</t>
+  </si>
+  <si>
+    <t>Search data wbp berdasarkan nomor registrasi</t>
+  </si>
+  <si>
+    <t>test_7_sortir_table_cari_nama_cari_identitas</t>
+  </si>
+  <si>
+    <t>Search data wbp berdasarkan nama</t>
+  </si>
+  <si>
+    <t>test_8_sortir_table_cari_JenisKejahatan_cari_identitas</t>
+  </si>
+  <si>
+    <t>Search data wbp berdasarkan jenis kejahatan</t>
+  </si>
+  <si>
     <t>test_9_search_data_aktif_cari_identitas</t>
   </si>
   <si>
+    <t>Filter data wbp yang masih aktif</t>
+  </si>
+  <si>
     <t>test_10_search_residivis_cari_identitas</t>
   </si>
   <si>
-    <t>test_4_membuka_halaman_tambah_index</t>
-  </si>
-  <si>
-    <t>test_5_Button_Next_Prev</t>
+    <t>search data wbp berdasarkan residivis</t>
   </si>
   <si>
     <t>test_11_Sortir_5_Halaman_cari_identitas</t>
   </si>
   <si>
+    <t>Menampilkan 5 data per halaman</t>
+  </si>
+  <si>
+    <t>test_12_sortir_10_Halaman_cari_identitas</t>
+  </si>
+  <si>
+    <t>Menampilkan 10 data per halaman</t>
+  </si>
+  <si>
+    <t>test_13_sortir_20_Halaman_cari_identitas</t>
+  </si>
+  <si>
+    <t>Menampilkan 20 data per halaman</t>
+  </si>
+  <si>
     <t>test_14_sortir_50_Halaman_cari_identitas</t>
   </si>
   <si>
+    <t>Menampilkan 50 data per halaman</t>
+  </si>
+  <si>
     <t>test_15_sortir_100_Halaman_cari_identitas</t>
   </si>
   <si>
-    <t>test_13_sortir_20_Halaman_cari_identitas</t>
-  </si>
-  <si>
-    <t>test_12_sortir_10_Halaman_cari_identitas</t>
-  </si>
-  <si>
-    <t>test_8_sortir_table_cari_JenisKejahatan_cari_identitas</t>
-  </si>
-  <si>
-    <t>test_7_sortir_table_cari_nama_cari_identitas</t>
-  </si>
-  <si>
-    <t>test_6_sortir_table_cari_noreg_cari_identitas</t>
+    <t>Menampilkan 100 data per halaman</t>
   </si>
   <si>
     <t>test_3Fungsi_Daftar_Lalu_Lintas_Tambah.py</t>
@@ -175,109 +211,181 @@
     <t>test_1_setupOS_HalamanTambah</t>
   </si>
   <si>
-    <t>test_17_ButtonSubmitInternal_HalamanTambah</t>
+    <t>test_2_login_HalamanTambah</t>
+  </si>
+  <si>
+    <t>test_3_akses_menu_HalamanTambah</t>
+  </si>
+  <si>
+    <t>test_4_membuka_halaman_HalamanTambah</t>
+  </si>
+  <si>
+    <t>test_5_sortir_table_cari_nama_HalamanTambah</t>
+  </si>
+  <si>
+    <t>Mencari wbp berdasarkan nama yang akan di tambahkan</t>
+  </si>
+  <si>
+    <t>test_6_Click_Button_Detile_HalamanTambah</t>
+  </si>
+  <si>
+    <t>klik action detile pada hasil wbp yang di cari</t>
+  </si>
+  <si>
+    <t>test_7_Click_Button_Tambah_WBP_HalamanTambah</t>
+  </si>
+  <si>
+    <t>menekan button tambah pada saat muncul pop up</t>
   </si>
   <si>
     <t>test_8_sortir_detil_wbp_HalamanTambah</t>
   </si>
   <si>
-    <t>test_2_login_HalamanTambah</t>
-  </si>
-  <si>
-    <t>test_3_akses_menu_HalamanTambah</t>
-  </si>
-  <si>
-    <t>test_6_Click_Button_Detile_HalamanTambah</t>
+    <t>melakukan sortir detile wbp</t>
   </si>
   <si>
     <t>test_9_detile_perkara_HalamanTambah</t>
   </si>
   <si>
-    <t>test_16_NamaPengawalEksternal_HalamanTambah</t>
-  </si>
-  <si>
-    <t>test_4_membuka_halaman_HalamanTambah</t>
-  </si>
-  <si>
-    <t>test_5_sortir_table_cari_nama_HalamanTambah</t>
-  </si>
-  <si>
-    <t>test_7_Click_Button_Tambah_WBP_HalamanTambah</t>
+    <t>melakukan sortir data perkara wbp</t>
+  </si>
+  <si>
+    <t>test_10_Input_JenisKeluar_HalamanTambah</t>
+  </si>
+  <si>
+    <t>Menginputkan jenis keluar</t>
+  </si>
+  <si>
+    <t>test_11_Input_Tanggal_Keluar_HalamanTambah</t>
+  </si>
+  <si>
+    <t>Menginputkan tanggal keluar</t>
+  </si>
+  <si>
+    <t>test_12_Input_Deskripsi_HalamanTambah</t>
+  </si>
+  <si>
+    <t>menginputkan deksripsi</t>
+  </si>
+  <si>
+    <t>test_13_Input_Tanggal_Harus_Kembali_HalamanTambah</t>
+  </si>
+  <si>
+    <t>menginputkan tanggal harus kembali</t>
   </si>
   <si>
     <t>test_14_tambah_Pengwal_HalamanTambah</t>
   </si>
   <si>
+    <t>menginputkan pengawal</t>
+  </si>
+  <si>
+    <t>test_15_JenisPengawal_HalamanTambah</t>
+  </si>
+  <si>
+    <t>memilih jenis pengawal internal/external</t>
+  </si>
+  <si>
     <t>test_16_NamaPengawalInternal_HalamanTambah</t>
   </si>
   <si>
-    <t>test_15_JenisPengawalEksternal_HalamanTambah</t>
-  </si>
-  <si>
-    <t>test_10_Input_JenisKeluar_HalamanTambah</t>
-  </si>
-  <si>
-    <t>test_13_Input_Tanggal_Harus_Kembali_HalamanTambah</t>
-  </si>
-  <si>
-    <t>test_15_JenisPengawal_HalamanTambah</t>
-  </si>
-  <si>
-    <t>test_11_Input_Tanggal_Keluar_HalamanTambah</t>
-  </si>
-  <si>
-    <t>test_12_Input_Deskripsi_HalamanTambah</t>
+    <t>Search nama pengawal internal</t>
+  </si>
+  <si>
+    <t>test_17_JenisPengawalEksternal_HalamanTambah</t>
+  </si>
+  <si>
+    <t>test_18_NamaPengawalEksternal_HalamanTambah</t>
+  </si>
+  <si>
+    <t>Search nama pengawal External</t>
+  </si>
+  <si>
+    <t>test_19_ButtonSubmitInternal_HalamanTambah</t>
+  </si>
+  <si>
+    <t>Menekan button submit untuk menyimpan data</t>
   </si>
   <si>
     <t>test_4Fungsi_Daftar_Lalu_Lintas_Edit.py</t>
   </si>
   <si>
+    <t>test_2_login_HalamanEdit</t>
+  </si>
+  <si>
+    <t>test_3_akses_menu_HalamanEdit</t>
+  </si>
+  <si>
+    <t>test_4_sortir_table_cari_nama_cari_identitas</t>
+  </si>
+  <si>
+    <t>Search nama wbp yang akan di edit</t>
+  </si>
+  <si>
+    <t>test_5_Click_ButtonUbah_HalamanEdit</t>
+  </si>
+  <si>
+    <t>Click button halaman edit</t>
+  </si>
+  <si>
+    <t>test_6_sortir_detil_wbp_HalamanEdit</t>
+  </si>
+  <si>
+    <t>test_7_detile_perkara_HalamanEdit</t>
+  </si>
+  <si>
+    <t>test_8_Muat_Ulang_HalamanEdit</t>
+  </si>
+  <si>
+    <t>Muat ulang halaman</t>
+  </si>
+  <si>
+    <t>test_9_Ubah_NoSk_HalamanEdit</t>
+  </si>
+  <si>
+    <t>input nomor SK</t>
+  </si>
+  <si>
+    <t>test_10_UploadSurat_HalamanEdit</t>
+  </si>
+  <si>
+    <t>Upload surat</t>
+  </si>
+  <si>
+    <t>test_11_Ubah_Deskripsi_HalamanEdit</t>
+  </si>
+  <si>
+    <t>ubah data deskripsi</t>
+  </si>
+  <si>
+    <t>test_12_Input_JenisKeluar_HalamanTambah</t>
+  </si>
+  <si>
+    <t>Edit Jenis Keluar</t>
+  </si>
+  <si>
+    <t>test_13_Ubah_Tanggal_Keluar_Edit</t>
+  </si>
+  <si>
+    <t>merubah tanggal keluar</t>
+  </si>
+  <si>
+    <t>test_14_Ubah_Tanggal_kembali_Edit</t>
+  </si>
+  <si>
+    <t>merubah tanggal kembali</t>
+  </si>
+  <si>
+    <t>test_15_Ubah_Ubah_Status_Edit</t>
+  </si>
+  <si>
+    <t>Merubah setatus menjadi Di izinkan</t>
+  </si>
+  <si>
     <t>test_16_ButtonUbah_HalamanEdit</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>test_10_UploadSurat_HalamanEdit</t>
-  </si>
-  <si>
-    <t>test_4_sortir_table_cari_nama_cari_identitas</t>
-  </si>
-  <si>
-    <t>test_14_Ubah_Tanggal_kembali_Edit</t>
-  </si>
-  <si>
-    <t>test_8_Muat_Ulang_HalamanEdit</t>
-  </si>
-  <si>
-    <t>test_5_Click_ButtonUbah_HalamanEdit</t>
-  </si>
-  <si>
-    <t>test_2_login_HalamanEdit</t>
-  </si>
-  <si>
-    <t>test_3_akses_menu_HalamanEdit</t>
-  </si>
-  <si>
-    <t>test_6_sortir_detil_wbp_HalamanEdit</t>
-  </si>
-  <si>
-    <t>test_7_detile_perkara_HalamanEdit</t>
-  </si>
-  <si>
-    <t>test_15_Ubah_Tanggal_kembali_Edit</t>
-  </si>
-  <si>
-    <t>test_12_Input_JenisKeluar_HalamanTambah</t>
-  </si>
-  <si>
-    <t>test_9_Ubah_NoSk_HalamanEdit</t>
-  </si>
-  <si>
-    <t>test_11_Ubah_Deskripsi_HalamanEdit</t>
-  </si>
-  <si>
-    <t>test_13_Ubah_Tanggal_Keluar_Edit</t>
+    <t>menekan button ubah untuk menyimpan data</t>
   </si>
 </sst>
 </file>
@@ -285,9 +393,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -319,13 +427,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -333,10 +434,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,31 +449,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -381,24 +459,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,7 +480,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -425,8 +487,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,11 +511,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -463,13 +571,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,13 +703,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,19 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,127 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,17 +765,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,42 +793,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,145 +836,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1231,7 +1339,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1519,7 +1627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1530,38 +1638,47 @@
         <v>8</v>
       </c>
       <c r="D18" s="3">
-        <v>33.06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>2.08</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="3">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>3.52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1572,654 +1689,798 @@
         <v>8</v>
       </c>
       <c r="D21" s="3">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1.02</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="3">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>1.62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="3">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="3">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="3">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>1.35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="3">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>2.99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="3">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27">
+        <v>2.4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="3">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>1.39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="3">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>1.39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="3">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31">
+        <v>1.4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="3">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32">
+        <v>1.4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3">
-        <v>18.31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>2.02</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="3">
-        <v>13.39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3">
-        <v>11.29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>3.33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3">
-        <v>4.86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>1.01</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3">
-        <v>3.79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1.11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="3">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>2.29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="3">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="3">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>8.47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1.76</v>
+      </c>
+      <c r="E50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>7.6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2.04</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="3">
+        <v>3.32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="3">
+        <v>6.32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>4.2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="3">
+        <v>10.33</v>
+      </c>
+      <c r="E59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="E60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="3">
+        <v>16.22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="3">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="E63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="3">
+        <v>10.35</v>
+      </c>
+      <c r="E65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="3">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="3">
-        <v>31.74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="3">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="3">
-        <v>13.37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="3">
-        <v>11.95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="3">
-        <v>10.39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="3">
-        <v>10.36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="3">
-        <v>6.44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="3">
-        <v>5.92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="3">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="3">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="3">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="3">
-        <v>0.32</v>
+        <v>2.72</v>
+      </c>
+      <c r="E67" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A18:D67">
+    <sortCondition ref="A18"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
